--- a/HW4/3.19a.xlsx
+++ b/HW4/3.19a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yishunxu/University/19_autumn/GitLab/homework/HW4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3744A6-4109-0045-BF87-CA99C1230653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B33E459-2639-F543-9064-7E13DCE0FF45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11380" yWindow="0" windowWidth="14100" windowHeight="15000" xr2:uid="{BFE520B7-77BE-9F42-89B5-B80769E35568}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="B8:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
